--- a/Data/Gases.xlsx
+++ b/Data/Gases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research Group\Research Talks\BCCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5E7820-8578-469A-AF86-F70FB1F822D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B76585-7587-4FCE-88E4-1E3F2DA858A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B5DD88F-DFD1-4465-AC1D-1E4D7E55002A}"/>
+    <workbookView xWindow="32220" yWindow="540" windowWidth="23400" windowHeight="14610" activeTab="1" xr2:uid="{6B5DD88F-DFD1-4465-AC1D-1E4D7E55002A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pressure" sheetId="2" r:id="rId1"/>
@@ -52,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,11 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EF8CAC-5A46-4543-BE5D-CCFB9B52FB49}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1256,9 +1260,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD6E13C-DA05-4942-A9F3-0277DA4EE3CD}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1302,37 +1312,37 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C2">
-        <v>105.79814756</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D2" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E2">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F2" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>132.43385567999999</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I2">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J2" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1340,37 +1350,37 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>100.0470912</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C3" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E3">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F3" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G3">
-        <v>131.82864576</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H3" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I3">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J3" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1378,37 +1388,37 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>100.0470912</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C4" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I4">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J4" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -1416,37 +1426,37 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C5">
-        <v>105.79814756</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D5" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>124.26151332000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>132.43385567999999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -1454,37 +1464,37 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>100.0470912</v>
-      </c>
-      <c r="C6">
-        <v>105.79814756</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C6" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D6" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G6">
-        <v>131.82864576</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H6" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I6">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J6" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1492,37 +1502,37 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>100.0470912</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C7" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E7">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F7" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1530,37 +1540,37 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>100.0470912</v>
-      </c>
-      <c r="C8">
-        <v>105.79814756</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C8" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D8" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E8">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F8" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1568,37 +1578,37 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C9">
-        <v>105.79814756</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D9" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E9">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F9" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G9">
-        <v>131.82864576</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H9" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I9">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J9" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1606,37 +1616,37 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>100.0470912</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C10" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E10">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F10" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -1644,37 +1654,37 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C11">
-        <v>105.79814756</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D11" s="2">
         <v>110.94377084</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I11">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J11" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1682,37 +1692,37 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C12">
-        <v>105.79814756</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D12" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G12">
-        <v>131.82864576</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H12" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I12">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J12" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1720,37 +1730,37 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C13">
-        <v>105.79814756</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D13" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>118.81328508</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G13">
-        <v>131.82864576</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H13" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -1758,37 +1768,37 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G14">
-        <v>131.82864576</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H14" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -1796,37 +1806,37 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>100.0470912</v>
-      </c>
-      <c r="C15">
-        <v>105.79814756</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C15" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D15" s="2">
         <v>111.85180887999999</v>
       </c>
-      <c r="E15">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F15" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G15">
-        <v>131.82864576</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H15" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I15">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J15" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1834,37 +1844,37 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>100.0470912</v>
-      </c>
-      <c r="C16">
-        <v>105.79814756</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C16" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D16" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1872,37 +1882,37 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C17">
-        <v>105.79814756</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D17" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E17">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F17" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>141.51445924000001</v>
       </c>
-      <c r="I17">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J17" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1910,37 +1920,37 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C18">
-        <v>105.79814756</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D18" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E18">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F18" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I18">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J18">
+      <c r="I18" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J18" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -1948,37 +1958,37 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E19">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F19" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I19">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J19" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -1986,37 +1996,37 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>100.0470912</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C20" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E20">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F20" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G20">
-        <v>131.82864576</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H20" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I20">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J20" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -2024,37 +2034,37 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>100.0470912</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C21" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E21">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F21" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G21">
-        <v>131.82864576</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H21" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I21">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J21">
+      <c r="I21" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J21" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -2062,37 +2072,37 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>100.0470912</v>
-      </c>
-      <c r="C22">
-        <v>105.79814756</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C22" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D22" s="2">
         <v>110.94377084</v>
       </c>
-      <c r="E22">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F22" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I22">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J22" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2100,37 +2110,37 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E23">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F23" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G23">
-        <v>131.82864576</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H23" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I23">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J23" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2138,37 +2148,37 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>100.0470912</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C24" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>111.85180887999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G24">
-        <v>131.82864576</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H24" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I24">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J24" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -2176,37 +2186,37 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>100.0470912</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C25" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E25">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F25" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G25">
-        <v>131.82864576</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H25" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I25">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J25" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -2214,37 +2224,37 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C26">
-        <v>105.79814756</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D26" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E26">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F26" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G26">
-        <v>131.82864576</v>
-      </c>
-      <c r="H26">
+      <c r="G26" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H26" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I26">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J26" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -2252,37 +2262,37 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>100.0470912</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C27" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E27">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F27" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G27">
-        <v>131.82864576</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H27" s="2">
         <v>142.42249727999999</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>152.1080876</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -2290,37 +2300,37 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>100.0470912</v>
-      </c>
-      <c r="C28">
-        <v>105.79814756</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C28" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D28" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E28">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F28" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>141.51445924000001</v>
       </c>
-      <c r="I28">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J28" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -2328,37 +2338,37 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C29">
-        <v>105.79814756</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D29" s="2">
         <v>111.85180887999999</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>118.81328508</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2366,37 +2376,37 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C30">
-        <v>105.79814756</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D30" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E30">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F30" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G30">
-        <v>131.82864576</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H30" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2404,37 +2414,37 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>100.0470912</v>
-      </c>
-      <c r="C31">
-        <v>105.79814756</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C31" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D31" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G31">
-        <v>131.82864576</v>
-      </c>
-      <c r="H31">
+      <c r="G31" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H31" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I31">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J31" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2442,37 +2452,37 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E32">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F32" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G32">
-        <v>131.82864576</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H32" s="2">
         <v>141.51445924000001</v>
       </c>
-      <c r="I32">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J32" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2480,37 +2490,37 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>100.0470912</v>
-      </c>
-      <c r="C33">
-        <v>105.79814756</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C33" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D33" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G33">
-        <v>131.82864576</v>
-      </c>
-      <c r="H33">
+      <c r="G33" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H33" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2518,37 +2528,37 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>100.0470912</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C34" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I34">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J34" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2556,37 +2566,37 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>100.0470912</v>
-      </c>
-      <c r="C35">
-        <v>105.79814756</v>
-      </c>
-      <c r="D35">
+      <c r="B35" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C35" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D35" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E35">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F35" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2594,37 +2604,37 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C36">
-        <v>105.79814756</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D36" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2632,37 +2642,37 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>100.0470912</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C37" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E37">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F37">
+      <c r="E37" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F37" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G37">
-        <v>131.82864576</v>
-      </c>
-      <c r="H37">
+      <c r="G37" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H37" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -2670,37 +2680,37 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E38">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F38" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G38">
-        <v>131.82864576</v>
-      </c>
-      <c r="H38">
+      <c r="G38" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H38" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2708,37 +2718,37 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>100.0470912</v>
-      </c>
-      <c r="C39">
-        <v>105.79814756</v>
-      </c>
-      <c r="D39">
+      <c r="B39" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C39" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D39" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2746,37 +2756,37 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>100.0470912</v>
-      </c>
-      <c r="C40">
-        <v>105.79814756</v>
-      </c>
-      <c r="D40">
+      <c r="B40" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C40" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D40" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>117.90524704000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I40">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J40">
+      <c r="I40" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J40" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -2784,37 +2794,37 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>100.0470912</v>
-      </c>
-      <c r="C41">
-        <v>105.79814756</v>
-      </c>
-      <c r="D41">
+      <c r="B41" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C41" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D41" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E41">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F41" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G41">
-        <v>131.82864576</v>
-      </c>
-      <c r="H41">
+      <c r="G41" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H41" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I41">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J41" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2822,37 +2832,37 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>100.0470912</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C42" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>111.85180887999999</v>
       </c>
-      <c r="E42">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F42" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G42">
-        <v>131.82864576</v>
-      </c>
-      <c r="H42">
+      <c r="G42" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H42" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I42">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J42">
+      <c r="I42" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J42" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2860,37 +2870,37 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C43">
-        <v>105.79814756</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D43" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E43">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F43" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G43">
-        <v>131.82864576</v>
-      </c>
-      <c r="H43">
+      <c r="G43" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H43" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I43">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J43">
+      <c r="I43" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J43" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -2898,37 +2908,37 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>100.0470912</v>
-      </c>
-      <c r="C44">
-        <v>105.79814756</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C44" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D44" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -2936,37 +2946,37 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>100.0470912</v>
-      </c>
-      <c r="C45">
-        <v>105.79814756</v>
-      </c>
-      <c r="D45">
+      <c r="B45" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C45" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D45" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E45">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F45" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G45">
-        <v>131.82864576</v>
-      </c>
-      <c r="H45">
+      <c r="G45" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H45" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -2974,37 +2984,37 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>100.0470912</v>
-      </c>
-      <c r="C46">
-        <v>105.79814756</v>
-      </c>
-      <c r="D46">
+      <c r="B46" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C46" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D46" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E46">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F46" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G46">
-        <v>131.82864576</v>
-      </c>
-      <c r="H46">
+      <c r="G46" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H46" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I46">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J46">
+      <c r="I46" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J46" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3012,37 +3022,37 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>100.0470912</v>
-      </c>
-      <c r="C47">
-        <v>105.79814756</v>
-      </c>
-      <c r="D47">
+      <c r="B47" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C47" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D47" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>132.43385567999999</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3050,37 +3060,37 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>100.0470912</v>
-      </c>
-      <c r="C48">
-        <v>105.79814756</v>
-      </c>
-      <c r="D48">
+      <c r="B48" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C48" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D48" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E48">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F48" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G48">
-        <v>131.82864576</v>
-      </c>
-      <c r="H48">
+      <c r="G48" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H48" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I48">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J48">
+      <c r="I48" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J48" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3088,37 +3098,37 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>100.0470912</v>
-      </c>
-      <c r="C49">
-        <v>105.79814756</v>
-      </c>
-      <c r="D49">
+      <c r="B49" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C49" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D49" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G49">
-        <v>131.82864576</v>
-      </c>
-      <c r="H49">
+      <c r="G49" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H49" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I49">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J49">
+      <c r="I49" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J49" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3126,37 +3136,37 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>100.0470912</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C50" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3164,37 +3174,37 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>100.0470912</v>
-      </c>
-      <c r="C51">
-        <v>105.79814756</v>
-      </c>
-      <c r="D51">
+      <c r="B51" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C51" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D51" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>117.90524704000001</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G51">
-        <v>131.82864576</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H51" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3202,37 +3212,37 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>100.0470912</v>
-      </c>
-      <c r="C52">
-        <v>105.79814756</v>
-      </c>
-      <c r="D52">
+      <c r="B52" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C52" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D52" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E52">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F52" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I52">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J52">
+      <c r="I52" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J52" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3240,37 +3250,37 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>100.0470912</v>
-      </c>
-      <c r="C53">
-        <v>105.79814756</v>
-      </c>
-      <c r="D53">
+      <c r="B53" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C53" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D53" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I53">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J53">
+      <c r="I53" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J53" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3278,37 +3288,37 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>100.0470912</v>
-      </c>
-      <c r="C54">
-        <v>105.79814756</v>
-      </c>
-      <c r="D54">
+      <c r="B54" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C54" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D54" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E54">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F54" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G54">
-        <v>131.82864576</v>
-      </c>
-      <c r="H54">
+      <c r="G54" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H54" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I54">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J54">
+      <c r="I54" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J54" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3316,37 +3326,37 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>100.0470912</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C55" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E55">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F55" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3354,37 +3364,37 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>100.0470912</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C56" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>111.85180887999999</v>
       </c>
-      <c r="E56">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F56" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G56">
-        <v>131.82864576</v>
-      </c>
-      <c r="H56">
+      <c r="G56" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H56" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I56">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J56">
+      <c r="I56" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J56" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -3392,37 +3402,37 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>100.0470912</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C57" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I57">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J57">
+      <c r="I57" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J57" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <v>190.54851339999999</v>
       </c>
     </row>
@@ -3430,37 +3440,37 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>105.19271448000001</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>117.90524704000001</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I58">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J58">
+      <c r="I58" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J58" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3468,37 +3478,37 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>100.0470912</v>
-      </c>
-      <c r="C59">
-        <v>105.79814756</v>
-      </c>
-      <c r="D59">
+      <c r="B59" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C59" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D59" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G59">
-        <v>131.82864576</v>
-      </c>
-      <c r="H59">
+      <c r="G59" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H59" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I59">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J59">
+      <c r="I59" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J59" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="2">
         <v>190.54851339999999</v>
       </c>
     </row>
@@ -3506,37 +3516,37 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>100.0470912</v>
-      </c>
-      <c r="C60">
-        <v>105.79814756</v>
-      </c>
-      <c r="D60">
+      <c r="B60" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C60" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D60" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E60">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F60" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G60">
-        <v>131.82864576</v>
-      </c>
-      <c r="H60">
+      <c r="G60" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H60" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I60">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J60">
+      <c r="I60" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J60" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3544,37 +3554,37 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E61">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F61" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I61">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J61">
+      <c r="I61" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J61" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3582,37 +3592,37 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>100.0470912</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C62" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E62">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F62">
+      <c r="E62" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F62" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G62">
-        <v>131.82864576</v>
-      </c>
-      <c r="H62">
+      <c r="G62" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H62" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I62">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J62">
+      <c r="I62" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J62" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3620,37 +3630,37 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>100.0470912</v>
-      </c>
-      <c r="C63">
-        <v>105.79814756</v>
-      </c>
-      <c r="D63">
+      <c r="B63" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C63" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D63" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G63">
-        <v>131.82864576</v>
-      </c>
-      <c r="H63">
+      <c r="G63" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H63" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3658,37 +3668,37 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>100.0470912</v>
-      </c>
-      <c r="C64">
-        <v>105.79814756</v>
-      </c>
-      <c r="D64">
+      <c r="B64" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C64" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D64" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3696,37 +3706,37 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G65">
-        <v>131.82864576</v>
-      </c>
-      <c r="H65">
+      <c r="G65" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H65" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I65">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J65">
+      <c r="I65" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J65" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3734,37 +3744,37 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3772,37 +3782,37 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C67">
-        <v>105.79814756</v>
-      </c>
-      <c r="D67">
+      <c r="C67" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D67" s="2">
         <v>111.85180887999999</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>118.81328508</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G67">
-        <v>131.82864576</v>
-      </c>
-      <c r="H67">
+      <c r="G67" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H67" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I67">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J67">
+      <c r="I67" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J67" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3810,37 +3820,37 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>100.0470912</v>
-      </c>
-      <c r="C68">
-        <v>105.79814756</v>
-      </c>
-      <c r="D68">
+      <c r="B68" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C68" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D68" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>117.90524704000001</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G68">
-        <v>131.82864576</v>
-      </c>
-      <c r="H68">
+      <c r="G68" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H68" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I68">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J68">
+      <c r="I68" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J68" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3848,37 +3858,37 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E69">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F69">
+      <c r="E69" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F69" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G69">
-        <v>131.82864576</v>
-      </c>
-      <c r="H69">
+      <c r="G69" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H69" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -3886,37 +3896,37 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G70">
-        <v>131.82864576</v>
-      </c>
-      <c r="H70">
+      <c r="G70" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H70" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I70">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J70">
+      <c r="I70" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J70" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -3924,37 +3934,37 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>100.0470912</v>
-      </c>
-      <c r="C71">
-        <v>105.79814756</v>
-      </c>
-      <c r="D71">
+      <c r="B71" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C71" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D71" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <v>142.42249727999999</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -3962,37 +3972,37 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>100.0470912</v>
-      </c>
-      <c r="C72">
-        <v>105.79814756</v>
-      </c>
-      <c r="D72">
+      <c r="B72" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C72" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D72" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E72">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F72">
+      <c r="E72" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F72" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G72">
-        <v>131.82864576</v>
-      </c>
-      <c r="H72">
+      <c r="G72" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H72" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I72">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J72">
+      <c r="I72" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J72" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4000,37 +4010,37 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C73">
-        <v>105.79814756</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D73" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E73">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F73">
+      <c r="E73" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F73" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G73">
-        <v>131.82864576</v>
-      </c>
-      <c r="H73">
+      <c r="G73" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H73" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I73">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J73">
+      <c r="I73" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J73" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4038,37 +4048,37 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>100.0470912</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C74" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I74">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J74">
+      <c r="I74" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J74" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4076,37 +4086,37 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>100.0470912</v>
-      </c>
-      <c r="C75">
-        <v>105.79814756</v>
-      </c>
-      <c r="D75">
+      <c r="B75" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C75" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D75" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G75">
-        <v>131.82864576</v>
-      </c>
-      <c r="H75">
+      <c r="G75" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H75" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I75">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J75">
+      <c r="I75" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J75" s="2">
         <v>160.88586304</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4114,37 +4124,37 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>100.0470912</v>
-      </c>
-      <c r="C76">
-        <v>105.79814756</v>
-      </c>
-      <c r="D76">
+      <c r="B76" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C76" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D76" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G76">
-        <v>131.82864576</v>
-      </c>
-      <c r="H76">
+      <c r="G76" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H76" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I76">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J76">
+      <c r="I76" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J76" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4152,37 +4162,37 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>100.0470912</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C77" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E77">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F77">
+      <c r="E77" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F77" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G77">
-        <v>131.82864576</v>
-      </c>
-      <c r="H77">
+      <c r="G77" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H77" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4190,37 +4200,37 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E78">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F78">
+      <c r="E78" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F78" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4228,37 +4238,37 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>100.0470912</v>
-      </c>
-      <c r="C79">
-        <v>105.79814756</v>
-      </c>
-      <c r="D79">
+      <c r="B79" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C79" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D79" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4266,37 +4276,37 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>100.0470912</v>
-      </c>
-      <c r="C80">
-        <v>105.79814756</v>
-      </c>
-      <c r="D80">
+      <c r="B80" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C80" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D80" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E80">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F80">
+      <c r="E80" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F80" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <v>152.1080876</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4304,37 +4314,37 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C81">
-        <v>105.79814756</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D81" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>124.26151332000001</v>
       </c>
-      <c r="G81">
-        <v>131.82864576</v>
-      </c>
-      <c r="H81">
+      <c r="G81" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H81" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -4342,37 +4352,37 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>100.0470912</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C82" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I82">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J82">
+      <c r="I82" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J82" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4380,37 +4390,37 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>117.90524704000001</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G83">
-        <v>131.82864576</v>
-      </c>
-      <c r="H83">
+      <c r="G83" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H83" s="2">
         <v>142.42249727999999</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4418,37 +4428,37 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>100.0470912</v>
-      </c>
-      <c r="C84">
-        <v>105.79814756</v>
-      </c>
-      <c r="D84">
+      <c r="B84" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C84" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D84" s="2">
         <v>111.85180887999999</v>
       </c>
-      <c r="E84">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F84">
+      <c r="E84" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F84" s="2">
         <v>125.16955136</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I84">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J84">
+      <c r="I84" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J84" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4456,37 +4466,37 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>100.0470912</v>
-      </c>
-      <c r="C85">
-        <v>105.79814756</v>
-      </c>
-      <c r="D85">
+      <c r="B85" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C85" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D85" s="2">
         <v>110.94377084</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <v>117.90524704000001</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G85">
-        <v>131.82864576</v>
-      </c>
-      <c r="H85">
+      <c r="G85" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H85" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4494,37 +4504,37 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>100.0470912</v>
-      </c>
-      <c r="C86">
-        <v>105.79814756</v>
-      </c>
-      <c r="D86">
+      <c r="B86" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C86" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D86" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G86">
-        <v>131.82864576</v>
-      </c>
-      <c r="H86">
+      <c r="G86" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H86" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4532,37 +4542,37 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>110.94377084</v>
       </c>
-      <c r="E87">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F87">
+      <c r="E87" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F87" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G87">
-        <v>131.82864576</v>
-      </c>
-      <c r="H87">
+      <c r="G87" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H87" s="2">
         <v>141.51445924000001</v>
       </c>
-      <c r="I87">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J87">
+      <c r="I87" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J87" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="2">
         <v>175.71729980000001</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4570,37 +4580,37 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E88">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F88">
+      <c r="E88" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F88" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G88">
-        <v>131.82864576</v>
-      </c>
-      <c r="H88">
+      <c r="G88" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H88" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I88">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J88">
+      <c r="I88" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J88" s="2">
         <v>161.79390108000001</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4608,37 +4618,37 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C89">
-        <v>105.79814756</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D89" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E89">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F89">
+      <c r="E89" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F89" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <v>132.13125072</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I89">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J89">
+      <c r="I89" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J89" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4646,37 +4656,37 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>100.0470912</v>
-      </c>
-      <c r="C90">
-        <v>105.79814756</v>
-      </c>
-      <c r="D90">
+      <c r="B90" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C90" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D90" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E90">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F90">
+      <c r="E90" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F90" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G90">
-        <v>131.82864576</v>
-      </c>
-      <c r="H90">
+      <c r="G90" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H90" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I90">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J90">
+      <c r="I90" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J90" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4684,37 +4694,37 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>100.0470912</v>
-      </c>
-      <c r="C91">
-        <v>105.79814756</v>
-      </c>
-      <c r="D91">
+      <c r="B91" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C91" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D91" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E91">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F91">
+      <c r="E91" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F91" s="2">
         <v>124.26151332000001</v>
       </c>
-      <c r="G91">
-        <v>131.82864576</v>
-      </c>
-      <c r="H91">
+      <c r="G91" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H91" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I91">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J91">
+      <c r="I91" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J91" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="2">
         <v>191.45655144</v>
       </c>
     </row>
@@ -4722,37 +4732,37 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>100.0470912</v>
-      </c>
-      <c r="C92">
-        <v>105.79814756</v>
-      </c>
-      <c r="D92">
+      <c r="B92" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C92" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D92" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E92">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F92">
+      <c r="E92" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F92" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I92">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J92">
+      <c r="I92" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J92" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="2">
         <v>176.62533783999999</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="2">
         <v>190.54851339999999</v>
       </c>
     </row>
@@ -4760,37 +4770,37 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>100.0470912</v>
-      </c>
-      <c r="C93">
-        <v>105.79814756</v>
-      </c>
-      <c r="D93">
+      <c r="B93" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C93" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D93" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E93">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F93">
+      <c r="E93" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F93" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G93">
-        <v>131.82864576</v>
-      </c>
-      <c r="H93">
+      <c r="G93" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H93" s="2">
         <v>141.51445924000001</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4798,37 +4808,37 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>106.10075252</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G94">
-        <v>131.82864576</v>
-      </c>
-      <c r="H94">
+      <c r="G94" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H94" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4836,37 +4846,37 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>100.0470912</v>
-      </c>
-      <c r="C95">
-        <v>105.79814756</v>
-      </c>
-      <c r="D95">
+      <c r="B95" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C95" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D95" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E95">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F95">
+      <c r="E95" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F95" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="2">
         <v>160.88586304</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4874,37 +4884,37 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>100.0470912</v>
-      </c>
-      <c r="C96">
+      <c r="B96" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C96" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E96">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F96">
+      <c r="E96" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F96" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G96">
-        <v>131.82864576</v>
-      </c>
-      <c r="H96">
+      <c r="G96" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H96" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -4912,37 +4922,37 @@
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>111.85180887999999</v>
       </c>
-      <c r="E97">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F97">
+      <c r="E97" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F97" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I97">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J97">
+      <c r="I97" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J97" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4950,37 +4960,37 @@
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>100.0470912</v>
-      </c>
-      <c r="C98">
-        <v>105.79814756</v>
-      </c>
-      <c r="D98">
+      <c r="B98" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C98" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D98" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G98">
-        <v>131.82864576</v>
-      </c>
-      <c r="H98">
+      <c r="G98" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H98" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="2">
         <v>176.32250972</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -4988,37 +4998,37 @@
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>100.0470912</v>
-      </c>
-      <c r="C99">
-        <v>105.79814756</v>
-      </c>
-      <c r="D99">
+      <c r="B99" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C99" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D99" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E99">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F99" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -5026,37 +5036,37 @@
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>100.34991932</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E100">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F100">
+      <c r="E100" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F100" s="2">
         <v>124.56434144000001</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>131.52581764000001</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <v>142.11966916</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <v>151.80548264000001</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="2">
         <v>191.15394648</v>
       </c>
     </row>
@@ -5064,37 +5074,37 @@
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>99.744486240000001</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>105.49531944</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>111.2463758</v>
       </c>
-      <c r="E101">
-        <v>118.20807516000001</v>
-      </c>
-      <c r="F101">
+      <c r="E101" s="2">
+        <v>118.20807516000001</v>
+      </c>
+      <c r="F101" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G101">
-        <v>131.82864576</v>
-      </c>
-      <c r="H101">
+      <c r="G101" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H101" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I101">
-        <v>151.50287768000001</v>
-      </c>
-      <c r="J101">
+      <c r="I101" s="2">
+        <v>151.50287768000001</v>
+      </c>
+      <c r="J101" s="2">
         <v>161.49129611999999</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="2">
         <v>190.85111835999999</v>
       </c>
     </row>
@@ -5102,37 +5112,37 @@
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102">
-        <v>100.0470912</v>
-      </c>
-      <c r="C102">
-        <v>105.79814756</v>
-      </c>
-      <c r="D102">
+      <c r="B102" s="2">
+        <v>100.0470912</v>
+      </c>
+      <c r="C102" s="2">
+        <v>105.79814756</v>
+      </c>
+      <c r="D102" s="2">
         <v>111.54898076000001</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <v>118.51068012</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
         <v>124.8669464</v>
       </c>
-      <c r="G102">
-        <v>131.82864576</v>
-      </c>
-      <c r="H102">
+      <c r="G102" s="2">
+        <v>131.82864576</v>
+      </c>
+      <c r="H102" s="2">
         <v>141.8170642</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="2">
         <v>151.20004956</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="2">
         <v>161.188468</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="2">
         <v>176.01990476</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="2">
         <v>191.15394648</v>
       </c>
     </row>
